--- a/medicine/Enfance/Florence_Thinard/Florence_Thinard.xlsx
+++ b/medicine/Enfance/Florence_Thinard/Florence_Thinard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Florence Thinard née en 1962 à Royan est une autrice française de littérature jeunesse.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Née en 1962 à Royan, en bord de mer, Florence Thinard préfère les plages, les dunes, l'océan à l'école. Elle obtient laborieusement son baccalauréat. Elle s’installe à Paris, elle obtient avec enthousiasme des diplômes d’histoire, de sciences politiques et de relations internationales[1]. En 1995, elle s'installe à Toulouse. Elle devient journaliste de presse écrite. Elle décrypte les sujets d’actualités pour la jeunesse. Elle écrit des documentaires. Puis elle se consacre à la fiction pour enfants[2].
-En 2014, elle publie Calvalcades. Dans ce roman, les grands-parents de Félix rencontrent des difficultés financières pour leur centre de chevaux. Ils décident d'accueillir quatre adolescents en difficulté. Florence Thinard propose des romans pour les enfants et les adolescents défavorisés ou qui n'ont pas accès à la lecture[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Née en 1962 à Royan, en bord de mer, Florence Thinard préfère les plages, les dunes, l'océan à l'école. Elle obtient laborieusement son baccalauréat. Elle s’installe à Paris, elle obtient avec enthousiasme des diplômes d’histoire, de sciences politiques et de relations internationales. En 1995, elle s'installe à Toulouse. Elle devient journaliste de presse écrite. Elle décrypte les sujets d’actualités pour la jeunesse. Elle écrit des documentaires. Puis elle se consacre à la fiction pour enfants.
+En 2014, elle publie Calvalcades. Dans ce roman, les grands-parents de Félix rencontrent des difficultés financières pour leur centre de chevaux. Ils décident d'accueillir quatre adolescents en difficulté. Florence Thinard propose des romans pour les enfants et les adolescents défavorisés ou qui n'ont pas accès à la lecture.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Une gauloise dans le garage à vélo, Paris, les Incorruptibles, 2004
 Entre chien et loup, Paris, les Incorruptibles, 2006
@@ -554,7 +570,7 @@
 Totem : 5 tomes, Paris, Thierry Magnier, 2017
 Chat va barder, Paris, Thierry Magnier, 2017
 Le Gang des vieux Schnocks, Paris, Gallimard, 2020 (ISBN 978-2-07-511893-4)
-La Reine Soleil, Paris, Thierry Magnier,, 2022 (ISBN 979-10-352-0526-3)</t>
+La Reine Soleil, Paris, Thierry Magnier 2022 (ISBN 979-10-352-0526-3)</t>
         </is>
       </c>
     </row>
